--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7900"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="7900"/>
   </bookViews>
   <sheets>
     <sheet name="Aistleithner" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
   <dimension ref="A2:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1137D6A1-54B1-4933-884F-9C28B9D1A0AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="7900"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aistleithner" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,10 +99,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -201,11 +202,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,7 +220,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -292,21 +293,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H46">
     <sortCondition ref="D6:D46"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -576,40 +577,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="23"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>20</v>
       </c>
@@ -632,7 +633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -657,7 +658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -682,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -707,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -732,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -758,7 +759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
@@ -783,7 +784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>2</v>
       </c>
@@ -808,7 +809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
@@ -833,7 +834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
@@ -858,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -883,7 +884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -908,7 +909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -933,7 +934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
@@ -958,7 +959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -983,7 +984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="12"/>
@@ -998,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="12"/>
@@ -1013,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="12"/>
@@ -1028,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="12"/>
@@ -1043,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
@@ -1058,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1073,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1088,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1103,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1118,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1133,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1148,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1163,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1178,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1193,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1208,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1223,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1238,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1253,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1268,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1283,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1298,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1313,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1328,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1343,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="12"/>
@@ -1358,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>0</v>
       </c>
@@ -1371,1078 +1372,1078 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="6"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="8"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="7"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="6"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="7"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="6"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="7"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="6"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1137D6A1-54B1-4933-884F-9C28B9D1A0AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Aistleithner" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>GESAMT</t>
   </si>
@@ -95,14 +94,17 @@
   <si>
     <t>Zeiterfassung Software Engineering Praktikum (259035)</t>
   </si>
+  <si>
+    <t>Besprechung LVA Leiter Release I</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -202,11 +204,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,7 +222,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -293,21 +295,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H46"/>
   <sortState ref="B7:H46">
     <sortCondition ref="D6:D46"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -577,40 +579,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="23"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>20</v>
       </c>
@@ -633,7 +635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -658,7 +660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -683,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -708,7 +710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -733,7 +735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -759,7 +761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
@@ -784,7 +786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>2</v>
       </c>
@@ -809,7 +811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
@@ -834,7 +836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
@@ -859,7 +861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -884,7 +886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -909,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -934,7 +936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
@@ -959,7 +961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -984,37 +986,57 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12">
+        <v>43216</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.625</v>
+      </c>
       <c r="G21">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="12">
+        <v>43209</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="G22">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="12"/>
@@ -1029,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="12"/>
@@ -1044,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
@@ -1059,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1074,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1089,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1104,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1119,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1134,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1149,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1164,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1179,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1194,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1209,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1224,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1239,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1254,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1269,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1284,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1299,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1314,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1329,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1344,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="12"/>
@@ -1359,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" s="10" t="s">
         <v>0</v>
       </c>
@@ -1369,1081 +1391,1081 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="6"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="8"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="7"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="6"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="7"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A139" s="2"/>
       <c r="B139" s="6"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="7"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A184" s="2"/>
       <c r="B184" s="6"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FC5CD1-00BD-4603-8CC2-0AAA61C71C00}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7910"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aistleithner" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>GESAMT</t>
   </si>
@@ -97,14 +98,20 @@
   <si>
     <t>Besprechung LVA Leiter Release I</t>
   </si>
+  <si>
+    <t xml:space="preserve">Überarbeitung Projekttagebuch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruppen Meeting Organisatorisches </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -204,11 +211,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,7 +229,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -295,21 +302,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H46">
     <sortCondition ref="D6:D46"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -579,40 +586,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="23"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>20</v>
       </c>
@@ -635,7 +642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -660,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -685,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -710,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -735,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -761,7 +768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
@@ -786,7 +793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>2</v>
       </c>
@@ -811,7 +818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
@@ -836,7 +843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
@@ -861,7 +868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -886,7 +893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -911,7 +918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -936,7 +943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
@@ -961,7 +968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -986,7 +993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +1018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1036,37 +1043,57 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="12">
+        <v>43221</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G23">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="12">
+        <v>43223</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
@@ -1081,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1096,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1111,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1126,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1141,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1156,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1171,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1186,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1201,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1216,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1231,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1246,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1261,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1276,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1291,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1306,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1321,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1336,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1351,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1366,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="12"/>
@@ -1381,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>0</v>
       </c>
@@ -1391,1081 +1418,1081 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="6"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="8"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="7"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="6"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="7"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="6"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="7"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="6"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FC5CD1-00BD-4603-8CC2-0AAA61C71C00}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF6571E-20E4-43D6-95D9-DD6B6F3916CA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>GESAMT</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gruppen Meeting Organisatorisches </t>
+  </si>
+  <si>
+    <t>Testrichtlinien erstellt, Testdokumentation überarbeitet</t>
+  </si>
+  <si>
+    <t>Zeitaufwandschätzung überarbeitet</t>
   </si>
 </sst>
 </file>
@@ -589,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:F24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,33 +1100,53 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="B25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="12">
+        <v>43226</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.8125</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.90625</v>
+      </c>
       <c r="G25">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H25">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="B26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="12">
+        <v>43226</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.90625</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="G26">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1418,7 +1444,7 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>42</v>
+        <v>46.25</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF6571E-20E4-43D6-95D9-DD6B6F3916CA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Aistleithner" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>GESAMT</t>
   </si>
@@ -109,15 +108,18 @@
   </si>
   <si>
     <t>Zeitaufwandschätzung überarbeitet</t>
+  </si>
+  <si>
+    <t>LVA - Präsenztermin, Vorstellung der Requirements des 2. Releases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -217,11 +219,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,7 +237,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -308,21 +310,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H46"/>
   <sortState ref="B7:H46">
     <sortCondition ref="D6:D46"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -592,40 +594,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="23"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>20</v>
       </c>
@@ -648,7 +650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -673,7 +675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -698,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -723,7 +725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -748,7 +750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -774,7 +776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
@@ -799,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>2</v>
       </c>
@@ -824,7 +826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
@@ -849,7 +851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
@@ -874,7 +876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -899,7 +901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -924,7 +926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -949,7 +951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
@@ -974,7 +976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -999,7 +1001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="13" t="s">
         <v>4</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1149,22 +1151,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="12">
+        <v>43223</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="G27">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H27">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1179,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1194,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1209,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1224,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1239,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1254,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1269,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1284,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1299,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1314,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1329,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1344,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1359,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1374,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1389,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1404,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1419,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="12"/>
@@ -1434,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" s="10" t="s">
         <v>0</v>
       </c>
@@ -1444,1081 +1456,1081 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>46.25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="6"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="8"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="7"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="6"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="7"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A139" s="2"/>
       <c r="B139" s="6"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="7"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A184" s="2"/>
       <c r="B184" s="6"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF27EE3-B4BA-4108-80B5-077F9C0144C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7910"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aistleithner" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>GESAMT</t>
   </si>
@@ -111,15 +112,18 @@
   </si>
   <si>
     <t>LVA - Präsenztermin, Vorstellung der Requirements des 2. Releases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testfälle für Release 2 geplant </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -219,11 +223,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -310,21 +314,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H46">
     <sortCondition ref="D6:D46"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -594,40 +598,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="23"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>20</v>
       </c>
@@ -650,7 +654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -675,7 +679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -700,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -725,7 +729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -750,7 +754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -776,7 +780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
@@ -801,7 +805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>2</v>
       </c>
@@ -826,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
@@ -851,7 +855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
@@ -876,7 +880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -901,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -926,7 +930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -951,7 +955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
@@ -976,7 +980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +1005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>4</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>2</v>
       </c>
@@ -1176,22 +1180,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="12">
+        <v>43236</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G28">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1206,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1221,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1236,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1251,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1266,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1281,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1296,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1311,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1326,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1341,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1356,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1371,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1386,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1401,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1416,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1431,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="12"/>
@@ -1446,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>0</v>
       </c>
@@ -1456,1081 +1470,1081 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="6"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="8"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="7"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="6"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="7"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="6"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="7"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="6"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF27EE3-B4BA-4108-80B5-077F9C0144C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F71EBD5-F979-4C2C-8E11-C39B79F965AE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>GESAMT</t>
   </si>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,18 +1206,28 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="B29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>43237</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.625</v>
+      </c>
       <c r="G29">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1470,7 +1480,7 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>53.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F71EBD5-F979-4C2C-8E11-C39B79F965AE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F2D35D-7438-416F-935E-6200C659E4F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>GESAMT</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t xml:space="preserve">Testfälle für Release 2 geplant </t>
+  </si>
+  <si>
+    <t>Programmieren</t>
+  </si>
+  <si>
+    <t>JDBC Recherche</t>
   </si>
 </sst>
 </file>
@@ -601,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:F29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,18 +1237,28 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="B30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="12">
+        <v>43240</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="G30">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1480,7 +1496,7 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>57.5</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F2D35D-7438-416F-935E-6200C659E4F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A9347-AA7B-48F0-86C0-E47EBE03EFA9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>GESAMT</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>JDBC Recherche</t>
+  </si>
+  <si>
+    <t>Datenspeicherung JDBC</t>
   </si>
 </sst>
 </file>
@@ -607,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1247,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="12">
-        <v>43240</v>
+        <v>43239</v>
       </c>
       <c r="E30" s="11">
         <v>0.625</v>
@@ -1262,18 +1265,28 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="B31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="12">
+        <v>43240</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="G31">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H31">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1496,7 +1509,7 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>61.5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A9347-AA7B-48F0-86C0-E47EBE03EFA9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7B1E30-FC1D-4DB4-8E6F-8C79CD081EB8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>GESAMT</t>
   </si>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,18 +1290,28 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="B32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="12">
+        <v>43241</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="G32">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1509,7 +1519,7 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7B1E30-FC1D-4DB4-8E6F-8C79CD081EB8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8EBB96-D3F0-4535-B6F9-044C8051651A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>GESAMT</t>
   </si>
@@ -611,7 +611,7 @@
   <dimension ref="A2:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,11 +1303,11 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F32" s="11">
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="G32">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
@@ -1315,18 +1315,28 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="B33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="12">
+        <v>43241</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G33">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1519,7 +1529,7 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8EBB96-D3F0-4535-B6F9-044C8051651A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB27814-3507-42A9-990C-5D677B278FDF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>GESAMT</t>
   </si>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,33 +1340,53 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="B34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="12">
+        <v>43242</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="G34">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H34">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="B35" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="12">
+        <v>43242</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G35">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H35">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1549,7 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB27814-3507-42A9-990C-5D677B278FDF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCC5AAF-C496-499E-A7CA-7C6D4714D62A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>GESAMT</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Datenspeicherung JDBC</t>
+  </si>
+  <si>
+    <t>Gruppen Meeting Fehlerbehebung</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
   <dimension ref="A2:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B36" sqref="B36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,18 +1393,28 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="B36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="12">
+        <v>43243</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G36">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H36">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1549,7 +1562,7 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>82</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCC5AAF-C496-499E-A7CA-7C6D4714D62A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE97C70-A9F7-4735-B278-9704FFA77D2D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>GESAMT</t>
   </si>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,18 +1418,28 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="B37" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="12">
+        <v>43243</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0.75</v>
+      </c>
       <c r="G37">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1562,7 +1572,7 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>86.5</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE97C70-A9F7-4735-B278-9704FFA77D2D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9352BE-D331-4256-9A8C-779EAE92BD04}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>GESAMT</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Gruppen Meeting Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Testfälle des 2. Release wurden überarbeitet, durchgeführt und dokumentiert</t>
+  </si>
+  <si>
+    <t>Testfälle des 1. Release überarbeitet und erneut durchgeführt und dokumentiert</t>
   </si>
 </sst>
 </file>
@@ -613,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,48 +1449,78 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="B38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="12">
+        <v>43243</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="G38">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H38">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="12">
+        <v>43243</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="G39">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H39">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="12">
+        <v>43244</v>
+      </c>
+      <c r="E40" s="11">
         <v>0</v>
       </c>
-      <c r="H38">
-        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39">
-        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="F40" s="11">
+        <v>6.25E-2</v>
+      </c>
       <c r="G40">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H40">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1572,7 +1608,7 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>88.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9352BE-D331-4256-9A8C-779EAE92BD04}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="18270" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Aistleithner" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>GESAMT</t>
   </si>
@@ -133,15 +132,18 @@
   </si>
   <si>
     <t>Testfälle des 1. Release überarbeitet und erneut durchgeführt und dokumentiert</t>
+  </si>
+  <si>
+    <t>Vorbereitung Präsentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -241,11 +243,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,7 +261,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -332,21 +334,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H46"/>
   <sortState ref="B7:H46">
     <sortCondition ref="D6:D46"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -616,11 +618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,18 +1526,28 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="B41" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="12">
+        <v>43244</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G41">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H41">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1608,7 +1620,7 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>95</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF8AF6-B3F3-488A-BF7D-7513EFB71C75}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="18270" windowHeight="7905"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aistleithner" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>GESAMT</t>
   </si>
@@ -135,15 +136,18 @@
   </si>
   <si>
     <t>Vorbereitung Präsentation</t>
+  </si>
+  <si>
+    <t>Gruppenmeeting, Besprechung weiteres Vorgehen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -243,11 +247,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,7 +265,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -334,21 +338,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H46">
     <sortCondition ref="D6:D46"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -618,11 +622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,18 +1555,28 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="B42" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="12">
+        <v>43249</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="G42">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1620,7 +1634,7 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>96.5</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF8AF6-B3F3-488A-BF7D-7513EFB71C75}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB86E4-DC97-4530-8818-F7F752678A2B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6510" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>GESAMT</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Gruppenmeeting, Besprechung weiteres Vorgehen</t>
+  </si>
+  <si>
+    <t>Überarbeitung Datenspeicherung</t>
   </si>
 </sst>
 </file>
@@ -625,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,18 +1583,28 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="B43" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="12">
+        <v>43249</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G43">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1634,7 +1647,7 @@
       <c r="F46" s="9"/>
       <c r="G46">
         <f>SUM(G7:G45)</f>
-        <v>97.5</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB86E4-DC97-4530-8818-F7F752678A2B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A62C9A-AAE3-4C58-A5E5-5D6ABC67729E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6510" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>GESAMT</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Überarbeitung Datenspeicherung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmieren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überarbeitung Datenspeicherung, Delete Funktionen </t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -297,6 +303,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -341,10 +348,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="B7:H46">
-    <sortCondition ref="D6:D46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:H58" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="B7:H58">
+    <sortCondition ref="D6:D58"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
@@ -626,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H231"/>
+  <dimension ref="A2:H243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>30</v>
       </c>
@@ -1357,7 +1364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>30</v>
       </c>
@@ -1382,7 +1389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>30</v>
       </c>
@@ -1407,7 +1414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>2</v>
       </c>
@@ -1432,7 +1439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>30</v>
       </c>
@@ -1457,7 +1464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
         <v>4</v>
       </c>
@@ -1482,7 +1489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>4</v>
       </c>
@@ -1507,7 +1514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
         <v>2</v>
       </c>
@@ -1557,7 +1564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>2</v>
       </c>
@@ -1582,7 +1589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
         <v>30</v>
       </c>
@@ -1607,146 +1614,274 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="12">
+        <v>43252</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="G44">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H44">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="12">
+        <v>43252</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G45">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H45">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H44">
+      <c r="H46" s="24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H45">
+      <c r="H47" s="24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46">
-        <f>SUM(G7:G45)</f>
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H48" s="24">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="24">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="24">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="24">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="24">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="24">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="24">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="24">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="24">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="24">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58">
+        <f>SUM(G7:G57)</f>
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1790,7 +1925,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
     </row>
@@ -1910,7 +2045,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="7"/>
+      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
     </row>
@@ -1918,31 +2053,31 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="6"/>
+      <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="4"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
@@ -1982,7 +2117,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
+      <c r="B103" s="7"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
     </row>
@@ -1990,31 +2125,31 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="3"/>
+      <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="3"/>
+      <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="3"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="4"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
@@ -2180,7 +2315,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
-      <c r="B136" s="7"/>
+      <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
     </row>
@@ -2188,31 +2323,31 @@
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
-      <c r="B139" s="6"/>
+      <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="4"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="3"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
@@ -2252,7 +2387,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
+      <c r="B148" s="7"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
     </row>
@@ -2260,31 +2395,31 @@
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="3"/>
+      <c r="D149" s="2"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="3"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
+      <c r="B151" s="6"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="3"/>
+      <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="3"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="3"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="4"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
@@ -2450,7 +2585,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
-      <c r="B181" s="7"/>
+      <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
     </row>
@@ -2458,31 +2593,31 @@
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
+      <c r="D182" s="3"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
-      <c r="B184" s="6"/>
+      <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
+      <c r="D184" s="3"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-    </row>
-    <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="4"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="3"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
@@ -2522,7 +2657,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
+      <c r="B193" s="7"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
     </row>
@@ -2530,31 +2665,31 @@
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
-      <c r="D194" s="3"/>
+      <c r="D194" s="2"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
-      <c r="D195" s="3"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
+      <c r="B196" s="6"/>
       <c r="C196" s="2"/>
-      <c r="D196" s="3"/>
+      <c r="D196" s="2"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
-      <c r="D197" s="3"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="3"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="4"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
@@ -2696,36 +2831,107 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="3"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="3"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="3"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="3"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="3"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="3"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="3"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="3"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="3"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="3"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="3"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="3"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="2"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="2"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="2"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="2"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="2"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A62C9A-AAE3-4C58-A5E5-5D6ABC67729E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B06F08-FAD4-4E55-A3F8-8C91406F9AD9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6510" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>GESAMT</t>
   </si>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,18 +1665,28 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="B46" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="12">
+        <v>43256</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0.5</v>
+      </c>
       <c r="G46" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" s="24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -1854,7 +1864,7 @@
       <c r="F58" s="9"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>108.5</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B06F08-FAD4-4E55-A3F8-8C91406F9AD9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9310" yWindow="0" windowWidth="18270" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Aistleithner" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>GESAMT</t>
   </si>
@@ -148,15 +147,18 @@
   </si>
   <si>
     <t xml:space="preserve">Überarbeitung Datenspeicherung, Delete Funktionen </t>
+  </si>
+  <si>
+    <t>Gruppenmeeting: Vorbereitung Präsentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -256,11 +258,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,7 +276,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -348,21 +350,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:H58" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="B6:H58" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H58"/>
   <sortState ref="B7:H58">
     <sortCondition ref="D6:D58"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -632,40 +634,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:F46"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="23"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>20</v>
       </c>
@@ -688,7 +690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -713,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -738,7 +740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -763,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -788,7 +790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -814,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
@@ -839,7 +841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>2</v>
       </c>
@@ -864,7 +866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
@@ -889,7 +891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
@@ -914,7 +916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -939,7 +941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -964,7 +966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -989,7 +991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
@@ -1014,7 +1016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1064,7 +1066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="13" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
         <v>2</v>
       </c>
@@ -1214,7 +1216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>4</v>
       </c>
@@ -1239,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="13" t="s">
         <v>30</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="13" t="s">
         <v>30</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13" t="s">
         <v>30</v>
       </c>
@@ -1339,7 +1341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="13" t="s">
         <v>30</v>
       </c>
@@ -1364,7 +1366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
         <v>30</v>
       </c>
@@ -1389,7 +1391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13" t="s">
         <v>30</v>
       </c>
@@ -1414,7 +1416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="13" t="s">
         <v>2</v>
       </c>
@@ -1439,7 +1441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="13" t="s">
         <v>30</v>
       </c>
@@ -1464,7 +1466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="13" t="s">
         <v>4</v>
       </c>
@@ -1489,7 +1491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
         <v>4</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="13" t="s">
         <v>4</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="13" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="13" t="s">
         <v>2</v>
       </c>
@@ -1589,7 +1591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="13" t="s">
         <v>30</v>
       </c>
@@ -1614,7 +1616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="13" t="s">
         <v>39</v>
       </c>
@@ -1639,7 +1641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="13" t="s">
         <v>30</v>
       </c>
@@ -1664,7 +1666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="13" t="s">
         <v>2</v>
       </c>
@@ -1689,22 +1691,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="12">
+        <v>43258</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G47" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" s="24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="12"/>
@@ -1719,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="12"/>
@@ -1734,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="12"/>
@@ -1749,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="12"/>
@@ -1764,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="12"/>
@@ -1779,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="12"/>
@@ -1794,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="12"/>
@@ -1809,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="12"/>
@@ -1824,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="12"/>
@@ -1839,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="12"/>
@@ -1854,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B58" s="10" t="s">
         <v>0</v>
       </c>
@@ -1864,1084 +1876,1085 @@
       <c r="F58" s="9"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>110.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="6"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="8"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="7"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A106" s="2"/>
       <c r="B106" s="6"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="7"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="6"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="7"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A196" s="2"/>
       <c r="B196" s="6"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="3"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="2"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="2"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="2"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="2"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="2"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="2"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="2"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E578373B-D30C-4BF7-AF09-EE8C6E603F93}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9310" yWindow="0" windowWidth="18270" windowHeight="7910"/>
+    <workbookView xWindow="9312" yWindow="0" windowWidth="18276" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aistleithner" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>GESAMT</t>
   </si>
@@ -155,10 +156,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -258,11 +259,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,7 +277,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -308,8 +309,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -350,21 +351,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="B6:H58" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:H58" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H58">
     <sortCondition ref="D6:D58"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -634,40 +635,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="23"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>20</v>
       </c>
@@ -690,7 +691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -715,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -740,7 +741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -765,7 +766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -790,7 +791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -816,7 +817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
@@ -841,7 +842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>2</v>
       </c>
@@ -866,7 +867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
@@ -891,7 +892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
@@ -916,7 +917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -941,7 +942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -966,7 +967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -991,7 +992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
         <v>4</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>2</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
         <v>30</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
         <v>30</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>30</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
         <v>30</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
         <v>30</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
         <v>30</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>2</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
         <v>30</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>4</v>
       </c>
@@ -1491,7 +1492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
         <v>4</v>
       </c>
@@ -1516,7 +1517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>4</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
         <v>2</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
         <v>30</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
         <v>39</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
         <v>30</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
         <v>2</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
         <v>2</v>
       </c>
@@ -1716,22 +1717,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="12">
+        <v>43283</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0.625</v>
+      </c>
       <c r="G48" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" s="24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="12"/>
@@ -1746,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="12"/>
@@ -1761,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="12"/>
@@ -1776,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="12"/>
@@ -1791,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="12"/>
@@ -1806,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="12"/>
@@ -1821,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="12"/>
@@ -1836,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="12"/>
@@ -1851,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="12"/>
@@ -1866,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>0</v>
       </c>
@@ -1876,1081 +1887,1081 @@
       <c r="F58" s="9"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="6"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="8"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="7"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="6"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="7"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="6"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="7"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="6"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="3"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E578373B-D30C-4BF7-AF09-EE8C6E603F93}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3F9AD9-C5D1-49FB-B341-BBC381EF32B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9312" yWindow="0" windowWidth="18276" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9315" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aistleithner" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>GESAMT</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Gruppenmeeting: Vorbereitung Präsentation</t>
+  </si>
+  <si>
+    <t>Programmierung</t>
+  </si>
+  <si>
+    <t>Delete-Methoden überarbeitet (Darstellung nach Löschung)</t>
   </si>
 </sst>
 </file>
@@ -261,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -307,10 +313,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -638,37 +655,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="23"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>20</v>
       </c>
@@ -691,7 +708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -716,7 +733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -741,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -766,7 +783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -791,7 +808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -817,7 +834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
@@ -842,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>2</v>
       </c>
@@ -867,7 +884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
@@ -892,7 +909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
@@ -917,7 +934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
@@ -942,7 +959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -967,7 +984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -992,7 +1009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1042,7 +1059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>2</v>
       </c>
@@ -1117,7 +1134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -1142,7 +1159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1192,7 +1209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>2</v>
       </c>
@@ -1217,7 +1234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>4</v>
       </c>
@@ -1242,7 +1259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>2</v>
       </c>
@@ -1267,7 +1284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>30</v>
       </c>
@@ -1292,7 +1309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>30</v>
       </c>
@@ -1317,7 +1334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>30</v>
       </c>
@@ -1342,7 +1359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>30</v>
       </c>
@@ -1392,7 +1409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>30</v>
       </c>
@@ -1417,7 +1434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +1459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>30</v>
       </c>
@@ -1467,7 +1484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>4</v>
       </c>
@@ -1517,7 +1534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
         <v>4</v>
       </c>
@@ -1542,7 +1559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>2</v>
       </c>
@@ -1592,7 +1609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
         <v>30</v>
       </c>
@@ -1617,7 +1634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="s">
         <v>39</v>
       </c>
@@ -1642,7 +1659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
         <v>30</v>
       </c>
@@ -1667,7 +1684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="s">
         <v>2</v>
       </c>
@@ -1692,7 +1709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
         <v>2</v>
       </c>
@@ -1717,7 +1734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
         <v>2</v>
       </c>
@@ -1742,22 +1759,32 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="25">
+        <v>43283</v>
+      </c>
+      <c r="E49" s="26">
+        <v>0.6875</v>
+      </c>
+      <c r="F49" s="27">
+        <v>0.8125</v>
+      </c>
       <c r="G49" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H49" s="24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="12"/>
@@ -1772,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="12"/>
@@ -1787,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="12"/>
@@ -1802,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="12"/>
@@ -1817,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="12"/>
@@ -1832,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="12"/>
@@ -1847,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="12"/>
@@ -1862,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="12"/>
@@ -1877,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>0</v>
       </c>
@@ -1887,1081 +1914,1081 @@
       <c r="F58" s="9"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>114.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="6"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="8"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="7"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="6"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="7"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="6"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="7"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="6"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="3"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="3"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="3"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="3"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="3"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="3"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="3"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="3"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="3"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="3"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="3"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="3"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="3"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3F9AD9-C5D1-49FB-B341-BBC381EF32B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF7279C-14B7-4936-86D8-94DF6D40B918}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9315" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>GESAMT</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Delete-Methoden überarbeitet (Darstellung nach Löschung)</t>
+  </si>
+  <si>
+    <t>Überarbeiten Testfälle Release 1 und 2</t>
   </si>
 </sst>
 </file>
@@ -655,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,18 +1788,28 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="B50" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="12">
+        <v>43284</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0.75</v>
+      </c>
       <c r="G50" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H50" s="24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1914,7 +1927,7 @@
       <c r="F58" s="9"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>117.5</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF7279C-14B7-4936-86D8-94DF6D40B918}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D458B305-B8AD-46A6-80C8-06FFC471ABD3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9315" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>GESAMT</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>Überarbeiten Testfälle Release 1 und 2</t>
+  </si>
+  <si>
+    <t>Erstellen der Testfälle für den 3. Release</t>
+  </si>
+  <si>
+    <t>Durchführen der Testfälle für Release 3</t>
+  </si>
+  <si>
+    <t>Erstellen der Testdokumentation</t>
+  </si>
+  <si>
+    <t>Benutzerdokumentation</t>
   </si>
 </sst>
 </file>
@@ -658,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,152 +1751,202 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="12">
-        <v>43283</v>
+        <v>45</v>
+      </c>
+      <c r="D48" s="25">
+        <v>43282</v>
       </c>
       <c r="E48" s="11">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F48" s="11">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="G48" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48" s="24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49" s="25">
-        <v>43283</v>
-      </c>
-      <c r="E49" s="26">
-        <v>0.6875</v>
-      </c>
-      <c r="F49" s="27">
-        <v>0.8125</v>
+        <v>43282</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0.91666666666666663</v>
       </c>
       <c r="G49" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49" s="24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="12">
+        <v>43283</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="G50" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>2</v>
+      </c>
+      <c r="H50" s="24">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="25">
+        <v>43283</v>
+      </c>
+      <c r="E51" s="26">
+        <v>0.6875</v>
+      </c>
+      <c r="F51" s="27">
+        <v>0.8125</v>
+      </c>
+      <c r="G51" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>3</v>
+      </c>
+      <c r="H51" s="24">
+        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D52" s="12">
         <v>43284</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E52" s="11">
         <v>0.5</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F52" s="11">
         <v>0.75</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G52" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
         <v>6</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H52" s="24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="24">
-        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="24">
-        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="24">
-        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="24">
-        <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="B53" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="25">
+        <v>43284</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="G53" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H53" s="24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+      <c r="B54" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="12">
+        <v>43284</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="G54" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H54" s="24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="B55" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="12">
+        <v>43285</v>
+      </c>
+      <c r="E55" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F55" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G55" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H55" s="24">
         <f>WEEKNUM(Tabelle3[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -1927,7 +1989,7 @@
       <c r="F58" s="9"/>
       <c r="G58">
         <f>SUM(G7:G57)</f>
-        <v>123.5</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
